--- a/scripts/odds.xlsx
+++ b/scripts/odds.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="137">
   <si>
     <t xml:space="preserve">Player Name</t>
   </si>
@@ -182,9 +182,6 @@
   </si>
   <si>
     <t xml:space="preserve">Shane Lowry </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brandt Snedeker </t>
   </si>
   <si>
     <t xml:space="preserve">Brendan Steele </t>
@@ -584,10 +581,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C157"/>
+  <dimension ref="A1:C1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A24" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A49" activeCellId="0" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1283,21 +1280,21 @@
         <v>67</v>
       </c>
       <c r="B63" s="0" t="n">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64" s="0" t="n">
         <v>20000</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1308,7 +1305,7 @@
         <v>20000</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1319,7 +1316,7 @@
         <v>20000</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1330,7 +1327,7 @@
         <v>20000</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1341,7 +1338,7 @@
         <v>20000</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1352,7 +1349,7 @@
         <v>20000</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1363,7 +1360,7 @@
         <v>20000</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1374,7 +1371,7 @@
         <v>20000</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1385,7 +1382,7 @@
         <v>20000</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1396,7 +1393,7 @@
         <v>20000</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1407,7 +1404,7 @@
         <v>20000</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1418,7 +1415,7 @@
         <v>20000</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1429,7 +1426,7 @@
         <v>20000</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1440,7 +1437,7 @@
         <v>20000</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1451,7 +1448,7 @@
         <v>20000</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1459,10 +1456,10 @@
         <v>84</v>
       </c>
       <c r="B79" s="0" t="n">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1473,7 +1470,7 @@
         <v>25000</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1484,7 +1481,7 @@
         <v>25000</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1495,7 +1492,7 @@
         <v>25000</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1506,7 +1503,7 @@
         <v>25000</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1517,7 +1514,7 @@
         <v>25000</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1528,7 +1525,7 @@
         <v>25000</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1539,7 +1536,7 @@
         <v>25000</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1550,7 +1547,7 @@
         <v>25000</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1561,7 +1558,7 @@
         <v>25000</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1572,7 +1569,7 @@
         <v>25000</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1583,7 +1580,7 @@
         <v>25000</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1594,7 +1591,7 @@
         <v>25000</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1605,7 +1602,7 @@
         <v>25000</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1616,7 +1613,7 @@
         <v>25000</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1624,10 +1621,10 @@
         <v>99</v>
       </c>
       <c r="B94" s="0" t="n">
-        <v>25000</v>
+        <v>30000</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1638,7 +1635,7 @@
         <v>30000</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1649,7 +1646,7 @@
         <v>30000</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1660,7 +1657,7 @@
         <v>30000</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1671,7 +1668,7 @@
         <v>30000</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1682,7 +1679,7 @@
         <v>30000</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1693,7 +1690,7 @@
         <v>30000</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1704,7 +1701,7 @@
         <v>30000</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1715,7 +1712,7 @@
         <v>30000</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1726,7 +1723,7 @@
         <v>30000</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1734,10 +1731,10 @@
         <v>109</v>
       </c>
       <c r="B104" s="0" t="n">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1748,7 +1745,7 @@
         <v>40000</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1759,7 +1756,7 @@
         <v>40000</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1770,7 +1767,7 @@
         <v>40000</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1781,7 +1778,7 @@
         <v>40000</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1792,7 +1789,7 @@
         <v>40000</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1803,7 +1800,7 @@
         <v>40000</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1814,7 +1811,7 @@
         <v>40000</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1825,7 +1822,7 @@
         <v>40000</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1836,7 +1833,7 @@
         <v>40000</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1844,10 +1841,10 @@
         <v>119</v>
       </c>
       <c r="B114" s="0" t="n">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1858,7 +1855,7 @@
         <v>50000</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1869,7 +1866,7 @@
         <v>50000</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1880,7 +1877,7 @@
         <v>50000</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1891,7 +1888,7 @@
         <v>50000</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1902,7 +1899,7 @@
         <v>50000</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1913,7 +1910,7 @@
         <v>50000</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1924,7 +1921,7 @@
         <v>50000</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1935,7 +1932,7 @@
         <v>50000</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1946,7 +1943,7 @@
         <v>50000</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1954,10 +1951,10 @@
         <v>129</v>
       </c>
       <c r="B124" s="0" t="n">
-        <v>50000</v>
+        <v>75000</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1968,7 +1965,7 @@
         <v>75000</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1976,10 +1973,10 @@
         <v>131</v>
       </c>
       <c r="B126" s="0" t="n">
-        <v>75000</v>
+        <v>100000</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1990,7 +1987,7 @@
         <v>100000</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2001,7 +1998,7 @@
         <v>100000</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2012,7 +2009,7 @@
         <v>100000</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2023,7 +2020,7 @@
         <v>100000</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2034,19 +2031,13 @@
         <v>100000</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="B132" s="0" t="n">
-        <v>100000</v>
-      </c>
-      <c r="C132" s="4" t="s">
-        <v>69</v>
-      </c>
+      <c r="A132" s="5"/>
+      <c r="B132" s="6"/>
+      <c r="C132" s="6"/>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="5"/>
@@ -2168,11 +2159,7 @@
       <c r="B156" s="6"/>
       <c r="C156" s="6"/>
     </row>
-    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="5"/>
-      <c r="B157" s="6"/>
-      <c r="C157" s="6"/>
-    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/scripts/odds.xlsx
+++ b/scripts/odds.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="163">
   <si>
     <t xml:space="preserve">Player Name</t>
   </si>
@@ -34,406 +34,484 @@
     <t xml:space="preserve">Tier</t>
   </si>
   <si>
-    <t xml:space="preserve">Bryson DeChambeau </t>
+    <t xml:space="preserve">Brooks Koepka</t>
   </si>
   <si>
     <t xml:space="preserve">A</t>
   </si>
   <si>
-    <t xml:space="preserve">Justin Thomas </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patrick Cantlay </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rory McIlroy </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dustin Johnson </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jon Rahm </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brooks Koepka </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Collin Morikawa </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tiger Woods </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viktor Hovland </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Webb Simpson </t>
+    <t xml:space="preserve">Justin Thomas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jon Rahm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rory McIlroy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bryson DeChambeau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xander Schauffele</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dustin Johnson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patrick Cantlay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Webb Simpson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiger Woods</t>
   </si>
   <si>
     <t xml:space="preserve">B</t>
   </si>
   <si>
-    <t xml:space="preserve">Hideki Matsuyama </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xander Schauffele </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rickie Fowler </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abraham Ancer </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daniel Berger </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gary Woodland </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patrick Reed </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jason Day </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joaquin Niemann </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Justin Rose </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tony Finau </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jordan Spieth </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matt Kuchar </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matthew Fitzpatrick </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paul Casey </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sergio Garcia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sungjae Im </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marc Leishman </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adam Hadwin </t>
+    <t xml:space="preserve">Collin Morikawa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daniel Berger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hideki Matsuyama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jason Day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rickie Fowler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tommy Fleetwood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matthew Fitzpatrick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gary Woodland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patrick Reed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tony Finau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tyrell Hatton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viktor Hovland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adam Scott</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jordan Spieth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Justin Rose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abraham Ancer</t>
   </si>
   <si>
     <t xml:space="preserve">C</t>
   </si>
   <si>
-    <t xml:space="preserve">Billy Horschel </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ian Poulter </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kevin Kisner </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kevin Streelman </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Byeong-Hun An </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matthew Wolff </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bubba Watson </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cameron Champ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corey Conners </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doc Redman </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Harris English </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kevin Na </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lucas Glover </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phil Mickelson </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rory Sabbatini </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scottie Scheffler </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shane Lowry </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brendan Steele </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brendon Todd </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brian Harman </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Christiaan Bezuidenhout </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Danny Willett </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Harold Varner III </t>
-  </si>
-  <si>
-    <t xml:space="preserve">JT Poston </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joel Dahmen </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keegan Bradley </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Louis Oosthuizen </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matt Wallace </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Max Homa </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patrick Rodgers </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sepp Straka </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alex Noren </t>
+    <t xml:space="preserve">Shane Lowry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Louis Oosthuizen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marc Leishman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phil Mickelson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sergio Garcia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sungjae Im</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bubba Watson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chez Reavie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Henrik Stenson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matt Kuchar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matthew Wolff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paul Casey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scottie Scheffler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Billy Horschel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brendon Todd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Byeong-Hun An</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Danny Willett</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harris English</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joaquin Niemann</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matt Wallace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tom Lewis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christiaan Bezuidenhout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corey Conners</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erik Van Rooyen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ian Poulter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joel Dahmen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kevin Kisner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max Homa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ryan Palmer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Richy Werenski</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brandt Snedeker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brendan Steele</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cameron Champ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cameron Smith</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charl Schwartzel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emiliano Grillo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kevin Na</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kevin Streelman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucas Glover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luke List</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mackenzie Hughes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matthias Schwab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michael Thompson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russell Henley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adam Hadwin</t>
   </si>
   <si>
     <t xml:space="preserve">D</t>
   </si>
   <si>
-    <t xml:space="preserve">Bernd Wiesberger </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Branden Grace </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chez Reavie </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emiliano Grillo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erik Van Rooyen </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jason Kokrak </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lanto Griffin </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mackenzie Hughes </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mark Hubbard </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matthias Schwab </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maverick McNealy </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rafa Cabrera Bello </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ryan Moore </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Troy Merritt </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zach Johnson </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andrew Landry </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brian Stuard </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bud Cauley </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cameron Smith </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charles Howell III </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Graeme McDowell </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Haotong Li </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Henriko Norlander </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jason Dufner </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jim Furyk </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nick Taylor </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ryan Palmer </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Si Woo Kim </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talor Gooch </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tyler Duncan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adam Long </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carlos Ortiz </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Danny Lee </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dylan Frittelli </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Harry Higgs </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matthew Nesmith </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scott Piercy </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sebastian Munoz </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tom Hoge </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wyndham Clark </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andrew Putnam </t>
-  </si>
-  <si>
-    <t xml:space="preserve">C T Pan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charl Schwartzel </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jazz Janewattananond </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jimmy Walker </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nate Lashley </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stewart Cink </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sung Kang </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vaughn Taylor </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Victor Perez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">David Lingmerth </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Denny McCarthy </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ernie Els </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jason Scrivener </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keith Mitchell </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kevin Tway </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scott Harrington </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Steve Stricker </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xinjun Zhang </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zac Blair </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bo Hoag </t>
-  </si>
-  <si>
-    <t xml:space="preserve">William McGirt </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andy Ogletree </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carl Pettersson </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jim Herman </t>
-  </si>
-  <si>
-    <t xml:space="preserve">K J Choi </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peter Kuest </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vijay Singh </t>
+    <t xml:space="preserve">Bernd Wiesberger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brian Harman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doc Redman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dylan Frittelli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graeme McDowell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haotong Li</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harold Varner III</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JT Poston</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jason Kokrak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jim Furyk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joost Luiten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keegan Bradley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martin Kaymer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rafa Cabrera Bello</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robert Macintyre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rory Sabbatini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scott Piercy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sepp Straka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si Woo Kim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sung Kang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Troy Merritt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zach Johnson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xinjun Zhang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adam Long</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrew Putnam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cameron Tringale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denny McCarthy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jason Dufner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keith Mitchell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kurt Kitayama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lanto Griffin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marcus Kinhult</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matt Jones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sebastian Munoz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talor Gooch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tom Hoge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrew Landry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benjamin Hebert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brian Stuard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bud Cauley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C.T. Pan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carlos Ortiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Danny Lee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jazz Janewattananond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jimmy Walker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jorge Campillo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucas Herbert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mark Hubbard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nate Lashley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nick Taylor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ryo Ishikawa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steve Stricker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tyler Duncan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Victor Perez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wyndham Clark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chan Kim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shaun Norris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Davis Love III</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jim Herman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ken Tanigawa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rod Perry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ryan Vermeer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shaun Micheel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alex Beach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alex Knoll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ben Cook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bob Sowards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Danny Balin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">David Muttitt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jason Caron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeff Hart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J.R. Roth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">John O'Leary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Judd Gibb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Justin Bertsch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marty Jertson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michael Auterson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich Beem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rich Berberian Jr.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rob Labritz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shawn Warren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zach J. Johnson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joohyung Kim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mike Lorenzo-Vera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vaughn Taylor</t>
   </si>
 </sst>
 </file>
@@ -583,8 +661,8 @@
   </sheetPr>
   <dimension ref="A1:C1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A24" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A49" activeCellId="0" sqref="A49"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A132" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G164" activeCellId="0" sqref="G164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -608,9 +686,6 @@
       <c r="A2" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>1000</v>
-      </c>
       <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
@@ -619,9 +694,6 @@
       <c r="A3" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>1000</v>
-      </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
@@ -630,9 +702,6 @@
       <c r="A4" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>1200</v>
-      </c>
       <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
@@ -641,9 +710,6 @@
       <c r="A5" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>1200</v>
-      </c>
       <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
@@ -652,9 +718,6 @@
       <c r="A6" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>1600</v>
-      </c>
       <c r="C6" s="4" t="s">
         <v>4</v>
       </c>
@@ -663,9 +726,6 @@
       <c r="A7" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <v>1800</v>
-      </c>
       <c r="C7" s="4" t="s">
         <v>4</v>
       </c>
@@ -674,9 +734,6 @@
       <c r="A8" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <v>2000</v>
-      </c>
       <c r="C8" s="4" t="s">
         <v>4</v>
       </c>
@@ -685,9 +742,6 @@
       <c r="A9" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="0" t="n">
-        <v>2000</v>
-      </c>
       <c r="C9" s="4" t="s">
         <v>4</v>
       </c>
@@ -696,9 +750,6 @@
       <c r="A10" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="0" t="n">
-        <v>2000</v>
-      </c>
       <c r="C10" s="4" t="s">
         <v>4</v>
       </c>
@@ -707,1458 +758,1209 @@
       <c r="A11" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="0" t="n">
-        <v>2000</v>
-      </c>
       <c r="C11" s="4" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>2200</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="0" t="n">
-        <v>2500</v>
-      </c>
       <c r="C13" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="0" t="n">
-        <v>2500</v>
-      </c>
       <c r="C14" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="0" t="n">
-        <v>3300</v>
-      </c>
       <c r="C15" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="0" t="n">
-        <v>4000</v>
-      </c>
       <c r="C16" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="0" t="n">
-        <v>4000</v>
-      </c>
       <c r="C17" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="0" t="n">
-        <v>4000</v>
-      </c>
       <c r="C18" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="0" t="n">
-        <v>4000</v>
-      </c>
       <c r="C19" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="0" t="n">
-        <v>5000</v>
-      </c>
       <c r="C20" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="0" t="n">
-        <v>5000</v>
-      </c>
       <c r="C21" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="0" t="n">
-        <v>5000</v>
-      </c>
       <c r="C22" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="0" t="n">
-        <v>5000</v>
-      </c>
       <c r="C23" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="0" t="n">
-        <v>6600</v>
-      </c>
       <c r="C24" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="0" t="n">
-        <v>6600</v>
-      </c>
       <c r="C25" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="0" t="n">
-        <v>6600</v>
-      </c>
       <c r="C26" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="0" t="n">
-        <v>6600</v>
-      </c>
       <c r="C27" s="4" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="0" t="n">
-        <v>6600</v>
+        <v>32</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" s="0" t="n">
-        <v>6600</v>
+        <v>33</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" s="0" t="n">
-        <v>7000</v>
+        <v>34</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" s="0" t="n">
-        <v>8000</v>
+        <v>35</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="0" t="n">
-        <v>8000</v>
-      </c>
       <c r="C32" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="0" t="n">
-        <v>8000</v>
-      </c>
       <c r="C33" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="0" t="n">
-        <v>8000</v>
-      </c>
       <c r="C34" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="0" t="n">
-        <v>8000</v>
-      </c>
       <c r="C35" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="0" t="n">
-        <v>10000</v>
-      </c>
       <c r="C36" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="0" t="n">
-        <v>10000</v>
-      </c>
       <c r="C37" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="B38" s="0" t="n">
-        <v>12500</v>
-      </c>
       <c r="C38" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="0" t="n">
-        <v>12500</v>
-      </c>
       <c r="C39" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="B40" s="0" t="n">
-        <v>12500</v>
-      </c>
       <c r="C40" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="B41" s="0" t="n">
-        <v>12500</v>
-      </c>
       <c r="C41" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="B42" s="0" t="n">
-        <v>12500</v>
-      </c>
       <c r="C42" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="B43" s="0" t="n">
-        <v>12500</v>
-      </c>
       <c r="C43" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="B44" s="0" t="n">
-        <v>12500</v>
-      </c>
       <c r="C44" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="B45" s="0" t="n">
-        <v>12500</v>
-      </c>
       <c r="C45" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="B46" s="0" t="n">
-        <v>12500</v>
-      </c>
       <c r="C46" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="B47" s="0" t="n">
-        <v>12500</v>
-      </c>
       <c r="C47" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="B48" s="0" t="n">
-        <v>12500</v>
-      </c>
       <c r="C48" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B49" s="0" t="n">
-        <v>15000</v>
-      </c>
       <c r="C49" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="B50" s="0" t="n">
-        <v>15000</v>
-      </c>
       <c r="C50" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="B51" s="0" t="n">
-        <v>15000</v>
-      </c>
       <c r="C51" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="B52" s="0" t="n">
-        <v>15000</v>
-      </c>
       <c r="C52" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="B53" s="0" t="n">
-        <v>15000</v>
-      </c>
       <c r="C53" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="B54" s="0" t="n">
-        <v>15000</v>
-      </c>
       <c r="C54" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="B55" s="0" t="n">
-        <v>15000</v>
-      </c>
       <c r="C55" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="B56" s="0" t="n">
-        <v>15000</v>
-      </c>
       <c r="C56" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="B57" s="0" t="n">
-        <v>15000</v>
-      </c>
       <c r="C57" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="B58" s="0" t="n">
-        <v>15000</v>
-      </c>
       <c r="C58" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="B59" s="0" t="n">
-        <v>15000</v>
-      </c>
       <c r="C59" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="B60" s="0" t="n">
-        <v>15000</v>
-      </c>
       <c r="C60" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="B61" s="0" t="n">
-        <v>15000</v>
-      </c>
       <c r="C61" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="B62" s="0" t="n">
-        <v>15000</v>
-      </c>
       <c r="C62" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="B63" s="0" t="n">
-        <v>20000</v>
-      </c>
       <c r="C63" s="4" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="B64" s="0" t="n">
-        <v>20000</v>
+        <v>68</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B65" s="0" t="n">
-        <v>20000</v>
+        <v>69</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="B66" s="0" t="n">
-        <v>20000</v>
+        <v>70</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="B67" s="0" t="n">
-        <v>20000</v>
+        <v>71</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="B68" s="0" t="n">
-        <v>20000</v>
+        <v>72</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="B69" s="0" t="n">
-        <v>20000</v>
+        <v>73</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="B70" s="0" t="n">
-        <v>20000</v>
+        <v>74</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="B71" s="0" t="n">
-        <v>20000</v>
+        <v>75</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="B72" s="0" t="n">
-        <v>20000</v>
+        <v>76</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="B73" s="0" t="n">
-        <v>20000</v>
-      </c>
       <c r="C73" s="4" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="B74" s="0" t="n">
-        <v>20000</v>
-      </c>
       <c r="C74" s="4" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="B75" s="0" t="n">
-        <v>20000</v>
-      </c>
       <c r="C75" s="4" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="B76" s="0" t="n">
-        <v>20000</v>
-      </c>
       <c r="C76" s="4" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="B77" s="0" t="n">
-        <v>20000</v>
-      </c>
       <c r="C77" s="4" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="B78" s="0" t="n">
-        <v>20000</v>
-      </c>
       <c r="C78" s="4" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="B79" s="0" t="n">
-        <v>25000</v>
-      </c>
       <c r="C79" s="4" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="B80" s="0" t="n">
-        <v>25000</v>
-      </c>
       <c r="C80" s="4" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="B81" s="0" t="n">
-        <v>25000</v>
-      </c>
       <c r="C81" s="4" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="B82" s="0" t="n">
-        <v>25000</v>
-      </c>
       <c r="C82" s="4" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="B83" s="0" t="n">
-        <v>25000</v>
-      </c>
       <c r="C83" s="4" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="B84" s="0" t="n">
-        <v>25000</v>
-      </c>
       <c r="C84" s="4" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="B85" s="0" t="n">
-        <v>25000</v>
-      </c>
       <c r="C85" s="4" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="B86" s="0" t="n">
-        <v>25000</v>
-      </c>
       <c r="C86" s="4" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="B87" s="0" t="n">
-        <v>25000</v>
-      </c>
       <c r="C87" s="4" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="B88" s="0" t="n">
-        <v>25000</v>
-      </c>
       <c r="C88" s="4" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="B89" s="0" t="n">
-        <v>25000</v>
-      </c>
       <c r="C89" s="4" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="B90" s="0" t="n">
-        <v>25000</v>
-      </c>
       <c r="C90" s="4" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="B91" s="0" t="n">
-        <v>25000</v>
-      </c>
       <c r="C91" s="4" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="B92" s="0" t="n">
-        <v>25000</v>
-      </c>
       <c r="C92" s="4" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="B93" s="0" t="n">
-        <v>25000</v>
-      </c>
       <c r="C93" s="4" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="B94" s="0" t="n">
-        <v>30000</v>
-      </c>
       <c r="C94" s="4" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="B95" s="0" t="n">
-        <v>30000</v>
-      </c>
       <c r="C95" s="4" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B96" s="0" t="n">
-        <v>30000</v>
-      </c>
       <c r="C96" s="4" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="B97" s="0" t="n">
-        <v>30000</v>
-      </c>
       <c r="C97" s="4" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B98" s="0" t="n">
-        <v>30000</v>
-      </c>
       <c r="C98" s="4" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="B99" s="0" t="n">
-        <v>30000</v>
-      </c>
       <c r="C99" s="4" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="B100" s="0" t="n">
-        <v>30000</v>
-      </c>
       <c r="C100" s="4" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="B101" s="0" t="n">
-        <v>30000</v>
-      </c>
       <c r="C101" s="4" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="B102" s="0" t="n">
-        <v>30000</v>
-      </c>
       <c r="C102" s="4" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="B103" s="0" t="n">
-        <v>30000</v>
-      </c>
       <c r="C103" s="4" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="B104" s="0" t="n">
-        <v>40000</v>
-      </c>
       <c r="C104" s="4" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="B105" s="0" t="n">
-        <v>40000</v>
-      </c>
       <c r="C105" s="4" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="B106" s="0" t="n">
-        <v>40000</v>
-      </c>
       <c r="C106" s="4" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="B107" s="0" t="n">
-        <v>40000</v>
-      </c>
       <c r="C107" s="4" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="B108" s="0" t="n">
-        <v>40000</v>
-      </c>
       <c r="C108" s="4" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="B109" s="0" t="n">
-        <v>40000</v>
-      </c>
       <c r="C109" s="4" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="B110" s="0" t="n">
-        <v>40000</v>
-      </c>
       <c r="C110" s="4" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="B111" s="0" t="n">
-        <v>40000</v>
-      </c>
       <c r="C111" s="4" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="B112" s="0" t="n">
-        <v>40000</v>
-      </c>
       <c r="C112" s="4" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="B113" s="0" t="n">
-        <v>40000</v>
-      </c>
       <c r="C113" s="4" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="B114" s="0" t="n">
-        <v>50000</v>
-      </c>
       <c r="C114" s="4" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="B115" s="0" t="n">
-        <v>50000</v>
-      </c>
       <c r="C115" s="4" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="B116" s="0" t="n">
-        <v>50000</v>
-      </c>
       <c r="C116" s="4" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="B117" s="0" t="n">
-        <v>50000</v>
-      </c>
       <c r="C117" s="4" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="B118" s="0" t="n">
-        <v>50000</v>
-      </c>
       <c r="C118" s="4" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="B119" s="0" t="n">
-        <v>50000</v>
-      </c>
       <c r="C119" s="4" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="B120" s="0" t="n">
-        <v>50000</v>
-      </c>
       <c r="C120" s="4" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="B121" s="0" t="n">
-        <v>50000</v>
-      </c>
       <c r="C121" s="4" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="B122" s="0" t="n">
-        <v>50000</v>
-      </c>
       <c r="C122" s="4" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="B123" s="0" t="n">
-        <v>50000</v>
-      </c>
       <c r="C123" s="4" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="B124" s="0" t="n">
-        <v>75000</v>
-      </c>
       <c r="C124" s="4" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="B125" s="0" t="n">
-        <v>75000</v>
-      </c>
       <c r="C125" s="4" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="0" t="s">
+      <c r="A126" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B126" s="0" t="n">
-        <v>100000</v>
-      </c>
+      <c r="B126" s="6"/>
       <c r="C126" s="4" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="0" t="s">
+      <c r="A127" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B127" s="0" t="n">
-        <v>100000</v>
-      </c>
+      <c r="B127" s="6"/>
       <c r="C127" s="4" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="0" t="s">
+      <c r="A128" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B128" s="0" t="n">
-        <v>100000</v>
-      </c>
+      <c r="B128" s="6"/>
       <c r="C128" s="4" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="0" t="s">
+      <c r="A129" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B129" s="0" t="n">
-        <v>100000</v>
-      </c>
+      <c r="B129" s="6"/>
       <c r="C129" s="4" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="0" t="s">
+      <c r="A130" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="B130" s="0" t="n">
-        <v>100000</v>
-      </c>
+      <c r="B130" s="6"/>
       <c r="C130" s="4" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="0" t="s">
+      <c r="A131" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B131" s="0" t="n">
-        <v>100000</v>
-      </c>
+      <c r="B131" s="6"/>
       <c r="C131" s="4" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="5"/>
+      <c r="A132" s="5" t="s">
+        <v>137</v>
+      </c>
       <c r="B132" s="6"/>
-      <c r="C132" s="6"/>
+      <c r="C132" s="4" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="5"/>
+      <c r="A133" s="5" t="s">
+        <v>138</v>
+      </c>
       <c r="B133" s="6"/>
-      <c r="C133" s="6"/>
+      <c r="C133" s="4" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="5"/>
+      <c r="A134" s="5" t="s">
+        <v>139</v>
+      </c>
       <c r="B134" s="6"/>
-      <c r="C134" s="6"/>
+      <c r="C134" s="4" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="5"/>
+      <c r="A135" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="B135" s="6"/>
-      <c r="C135" s="6"/>
+      <c r="C135" s="4" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="5"/>
+      <c r="A136" s="5" t="s">
+        <v>141</v>
+      </c>
       <c r="B136" s="6"/>
-      <c r="C136" s="6"/>
+      <c r="C136" s="4" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="5"/>
+      <c r="A137" s="5" t="s">
+        <v>142</v>
+      </c>
       <c r="B137" s="6"/>
-      <c r="C137" s="6"/>
+      <c r="C137" s="4" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="5"/>
+      <c r="A138" s="5" t="s">
+        <v>143</v>
+      </c>
       <c r="B138" s="6"/>
-      <c r="C138" s="6"/>
+      <c r="C138" s="4" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="5"/>
+      <c r="A139" s="5" t="s">
+        <v>144</v>
+      </c>
       <c r="B139" s="6"/>
-      <c r="C139" s="6"/>
+      <c r="C139" s="4" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="5"/>
+      <c r="A140" s="5" t="s">
+        <v>145</v>
+      </c>
       <c r="B140" s="6"/>
-      <c r="C140" s="6"/>
+      <c r="C140" s="4" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="5"/>
+      <c r="A141" s="5" t="s">
+        <v>146</v>
+      </c>
       <c r="B141" s="6"/>
-      <c r="C141" s="6"/>
+      <c r="C141" s="4" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="5"/>
+      <c r="A142" s="5" t="s">
+        <v>147</v>
+      </c>
       <c r="B142" s="6"/>
-      <c r="C142" s="6"/>
+      <c r="C142" s="4" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="5"/>
+      <c r="A143" s="5" t="s">
+        <v>148</v>
+      </c>
       <c r="B143" s="6"/>
-      <c r="C143" s="6"/>
+      <c r="C143" s="4" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="5"/>
+      <c r="A144" s="5" t="s">
+        <v>149</v>
+      </c>
       <c r="B144" s="6"/>
-      <c r="C144" s="6"/>
+      <c r="C144" s="4" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="5"/>
+      <c r="A145" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="B145" s="6"/>
-      <c r="C145" s="6"/>
+      <c r="C145" s="4" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="5"/>
+      <c r="A146" s="5" t="s">
+        <v>151</v>
+      </c>
       <c r="B146" s="6"/>
-      <c r="C146" s="6"/>
+      <c r="C146" s="4" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="5"/>
+      <c r="A147" s="5" t="s">
+        <v>152</v>
+      </c>
       <c r="B147" s="6"/>
-      <c r="C147" s="6"/>
+      <c r="C147" s="4" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="5"/>
+      <c r="A148" s="5" t="s">
+        <v>153</v>
+      </c>
       <c r="B148" s="6"/>
-      <c r="C148" s="6"/>
+      <c r="C148" s="4" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="5"/>
+      <c r="A149" s="5" t="s">
+        <v>154</v>
+      </c>
       <c r="B149" s="6"/>
-      <c r="C149" s="6"/>
+      <c r="C149" s="4" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="5"/>
-      <c r="B150" s="6"/>
-      <c r="C150" s="6"/>
+      <c r="A150" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="5"/>
-      <c r="B151" s="6"/>
-      <c r="C151" s="6"/>
+      <c r="A151" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="5"/>
-      <c r="B152" s="6"/>
-      <c r="C152" s="6"/>
+      <c r="A152" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="5"/>
-      <c r="B153" s="6"/>
-      <c r="C153" s="6"/>
+      <c r="A153" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="5"/>
-      <c r="B154" s="6"/>
-      <c r="C154" s="6"/>
+      <c r="A154" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="5"/>
-      <c r="B155" s="6"/>
-      <c r="C155" s="6"/>
+      <c r="A155" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="5"/>
-      <c r="B156" s="6"/>
-      <c r="C156" s="6"/>
-    </row>
+      <c r="A156" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/scripts/odds.xlsx
+++ b/scripts/odds.xlsx
@@ -511,7 +511,7 @@
     <t xml:space="preserve">Mike Lorenzo-Vera</t>
   </si>
   <si>
-    <t xml:space="preserve">Vaughn Taylor</t>
+    <t xml:space="preserve">Alexander Noren</t>
   </si>
 </sst>
 </file>
@@ -662,7 +662,7 @@
   <dimension ref="A1:C1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A132" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G164" activeCellId="0" sqref="G164"/>
+      <selection pane="topLeft" activeCell="A158" activeCellId="0" sqref="A158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/scripts/odds.xlsx
+++ b/scripts/odds.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="151">
   <si>
     <t xml:space="preserve">Player Name</t>
   </si>
@@ -34,16 +34,22 @@
     <t xml:space="preserve">Tier</t>
   </si>
   <si>
-    <t xml:space="preserve">Brooks Koepka</t>
+    <t xml:space="preserve">Dustin Johnson</t>
   </si>
   <si>
     <t xml:space="preserve">A</t>
   </si>
   <si>
+    <t xml:space="preserve">Jon Rahm</t>
+  </si>
+  <si>
     <t xml:space="preserve">Justin Thomas</t>
   </si>
   <si>
-    <t xml:space="preserve">Jon Rahm</t>
+    <t xml:space="preserve">Xander Schauffele</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Collin Morikawa</t>
   </si>
   <si>
     <t xml:space="preserve">Rory McIlroy</t>
@@ -52,466 +58,424 @@
     <t xml:space="preserve">Bryson DeChambeau</t>
   </si>
   <si>
-    <t xml:space="preserve">Xander Schauffele</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dustin Johnson</t>
+    <t xml:space="preserve">Webb Simpson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daniel Berger</t>
   </si>
   <si>
     <t xml:space="preserve">Patrick Cantlay</t>
   </si>
   <si>
-    <t xml:space="preserve">Webb Simpson</t>
+    <t xml:space="preserve">Hideki Matsuyama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jason Day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patrick Reed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tommy Fleetwood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tony Finau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adam Scott</t>
   </si>
   <si>
     <t xml:space="preserve">Tiger Woods</t>
   </si>
   <si>
-    <t xml:space="preserve">B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Collin Morikawa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daniel Berger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hideki Matsuyama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jason Day</t>
+    <t xml:space="preserve">Tyrrell Hatton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Justin Rose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matthew Fitzpatrick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viktor Hovland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matthew Wolff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paul Casey</t>
   </si>
   <si>
     <t xml:space="preserve">Rickie Fowler</t>
   </si>
   <si>
-    <t xml:space="preserve">Tommy Fleetwood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matthew Fitzpatrick</t>
+    <t xml:space="preserve">Brendon Todd</t>
   </si>
   <si>
     <t xml:space="preserve">Gary Woodland</t>
   </si>
   <si>
-    <t xml:space="preserve">Patrick Reed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tony Finau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tyrell Hatton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viktor Hovland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adam Scott</t>
+    <t xml:space="preserve">Harris English</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Louis Oosthuizen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shane Lowry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sung-Jae Im</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abraham Ancer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kevin Kisner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martin Kaymer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phil Mickelson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cameron Champ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joaquin Niemann</t>
   </si>
   <si>
     <t xml:space="preserve">Jordan Spieth</t>
   </si>
   <si>
-    <t xml:space="preserve">Justin Rose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abraham Ancer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shane Lowry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Louis Oosthuizen</t>
+    <t xml:space="preserve">Si Woo Kim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Billy Horschel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bubba Watson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jason Kokrak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matt Kuchar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rasmus Hojgaard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sergio Garcia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Will Zalatoris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alex Noren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Byeong-Hun An</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cameron Smith</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chez Reavie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corey Conners</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Henrik Stenson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ian Poulter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kevin Na</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kevin Streelman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mackenzie Hughes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ryan Palmer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sebastian Munoz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thomas Pieters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bernd Wiesberger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brandon Wu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brandt Snedeker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brian Harman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charles Howell III</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christiaan Bezuidenhout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Danny Willett</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erik Van Rooyen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joel Dahmen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keegan Bradley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lanto Griffin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lee Westwood</t>
   </si>
   <si>
     <t xml:space="preserve">Marc Leishman</t>
   </si>
   <si>
-    <t xml:space="preserve">Phil Mickelson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sergio Garcia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sungjae Im</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bubba Watson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chez Reavie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Henrik Stenson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matt Kuchar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matthew Wolff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paul Casey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scottie Scheffler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Billy Horschel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brendon Todd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Byeong-Hun An</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Danny Willett</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Harris English</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joaquin Niemann</t>
-  </si>
-  <si>
     <t xml:space="preserve">Matt Wallace</t>
   </si>
   <si>
+    <t xml:space="preserve">Matthias Schwab</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tom Lewis</t>
   </si>
   <si>
-    <t xml:space="preserve">Christiaan Bezuidenhout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corey Conners</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erik Van Rooyen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ian Poulter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joel Dahmen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kevin Kisner</t>
+    <t xml:space="preserve">Zach Johnson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adam Hadwin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andy Sullivan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mark Hubbard</t>
   </si>
   <si>
     <t xml:space="preserve">Max Homa</t>
   </si>
   <si>
-    <t xml:space="preserve">Ryan Palmer</t>
+    <t xml:space="preserve">Michael Thompson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thomas Detry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adam Long</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Danny Lee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Graeme McDowell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JT Poston</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Justin Harding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucas Glover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mike Lorenzo-Vera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paul Waring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rafael Cabrera Bello</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robert Macintyre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Romain Langasque</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sami Valimaki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Victor Perez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adrian Otaegui</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrew Putnam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chan Kim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chesson Hadley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connor Syme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Davis Riley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eddie Pepperell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jazz Janewattananond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jim Herman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jimmy Walker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kurt Kitayama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lee Hodges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucas Herbert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matt Jones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renato Paratore</t>
   </si>
   <si>
     <t xml:space="preserve">Richy Werenski</t>
   </si>
   <si>
-    <t xml:space="preserve">Brandt Snedeker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brendan Steele</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cameron Champ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cameron Smith</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charl Schwartzel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emiliano Grillo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kevin Na</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kevin Streelman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lucas Glover</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luke List</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mackenzie Hughes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matthias Schwab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Michael Thompson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Russell Henley</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adam Hadwin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bernd Wiesberger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brian Harman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doc Redman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dylan Frittelli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Graeme McDowell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Haotong Li</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Harold Varner III</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JT Poston</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jason Kokrak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jim Furyk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joost Luiten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keegan Bradley</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Martin Kaymer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rafa Cabrera Bello</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Robert Macintyre</t>
+    <t xml:space="preserve">Ryan Fox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ryo Ishikawa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shugo Imahira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steve Stricker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sung Kang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Takumi Kanaya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taylor Pendrith</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Troy Merritt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tyler Duncan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chun An Yu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cole Hammer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Curtis Luck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Davis Thompson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greyson Sigg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stephan Jaeger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andy Ogletree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dan McCarthy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eduard Rousaud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JC Ritchie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">James Sugrue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">John Augenstein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">John Pak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lukas Michel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paul Barjon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preston Summerhays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ricky Castillo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sandy Scott</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scott Hend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shaun Norris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marty Jertson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ryan Vermeer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Danny Balin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Branden Grace</t>
   </si>
   <si>
     <t xml:space="preserve">Rory Sabbatini</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scott Piercy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sepp Straka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Si Woo Kim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sung Kang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Troy Merritt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zach Johnson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xinjun Zhang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adam Long</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andrew Putnam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cameron Tringale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Denny McCarthy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jason Dufner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keith Mitchell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kurt Kitayama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lanto Griffin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marcus Kinhult</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matt Jones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sebastian Munoz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Talor Gooch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tom Hoge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andrew Landry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benjamin Hebert</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brian Stuard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bud Cauley</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C.T. Pan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carlos Ortiz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Danny Lee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jazz Janewattananond</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jimmy Walker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jorge Campillo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lucas Herbert</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mark Hubbard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nate Lashley</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nick Taylor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ryo Ishikawa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Steve Stricker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tyler Duncan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Victor Perez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wyndham Clark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chan Kim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shaun Norris</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Davis Love III</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jim Herman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ken Tanigawa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rod Perry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ryan Vermeer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shaun Micheel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alex Beach</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alex Knoll</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ben Cook</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bob Sowards</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Danny Balin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">David Muttitt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jason Caron</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jeff Hart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J.R. Roth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">John O'Leary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Judd Gibb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Justin Bertsch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marty Jertson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Michael Auterson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rich Beem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rich Berberian Jr.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rob Labritz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shawn Warren</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zach J. Johnson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joohyung Kim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mike Lorenzo-Vera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alexander Noren</t>
   </si>
 </sst>
 </file>
@@ -553,13 +517,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -613,7 +577,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -634,11 +598,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -661,14 +629,15 @@
   </sheetPr>
   <dimension ref="A1:C1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A132" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A158" activeCellId="0" sqref="A158"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A126" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C146" activeCellId="0" sqref="C146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="30.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -759,15 +728,15 @@
         <v>13</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -775,7 +744,7 @@
         <v>16</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -783,7 +752,7 @@
         <v>17</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -791,7 +760,7 @@
         <v>18</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -799,7 +768,7 @@
         <v>19</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -807,7 +776,7 @@
         <v>20</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -815,7 +784,7 @@
         <v>21</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -823,7 +792,7 @@
         <v>22</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -831,7 +800,7 @@
         <v>23</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -839,7 +808,7 @@
         <v>24</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -847,7 +816,7 @@
         <v>25</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -855,7 +824,7 @@
         <v>26</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -863,7 +832,7 @@
         <v>27</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -871,7 +840,7 @@
         <v>28</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -879,7 +848,7 @@
         <v>29</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -887,47 +856,47 @@
         <v>30</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -935,7 +904,7 @@
         <v>37</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -943,7 +912,7 @@
         <v>38</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -951,7 +920,7 @@
         <v>39</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -959,7 +928,7 @@
         <v>40</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -967,7 +936,7 @@
         <v>41</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -975,7 +944,7 @@
         <v>42</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -983,7 +952,7 @@
         <v>43</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -991,7 +960,7 @@
         <v>44</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -999,7 +968,7 @@
         <v>45</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1007,7 +976,7 @@
         <v>46</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1015,7 +984,7 @@
         <v>47</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1023,7 +992,7 @@
         <v>48</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1031,7 +1000,7 @@
         <v>49</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1039,7 +1008,7 @@
         <v>50</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1047,7 +1016,7 @@
         <v>51</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1055,7 +1024,7 @@
         <v>52</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1063,7 +1032,7 @@
         <v>53</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1071,7 +1040,7 @@
         <v>54</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1079,7 +1048,7 @@
         <v>55</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1087,7 +1056,7 @@
         <v>56</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1095,7 +1064,7 @@
         <v>57</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1103,7 +1072,7 @@
         <v>58</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1111,7 +1080,7 @@
         <v>59</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1119,7 +1088,7 @@
         <v>60</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1127,7 +1096,7 @@
         <v>61</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1135,7 +1104,7 @@
         <v>62</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1143,7 +1112,7 @@
         <v>63</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1151,103 +1120,103 @@
         <v>64</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1255,7 +1224,7 @@
         <v>78</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1263,7 +1232,7 @@
         <v>79</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1271,7 +1240,7 @@
         <v>80</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1279,7 +1248,7 @@
         <v>81</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1287,7 +1256,7 @@
         <v>82</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1295,7 +1264,7 @@
         <v>83</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1303,7 +1272,7 @@
         <v>84</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1311,7 +1280,7 @@
         <v>85</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1319,7 +1288,7 @@
         <v>86</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1327,7 +1296,7 @@
         <v>87</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1335,7 +1304,7 @@
         <v>88</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1343,7 +1312,7 @@
         <v>89</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1351,7 +1320,7 @@
         <v>90</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1359,7 +1328,7 @@
         <v>91</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1367,7 +1336,7 @@
         <v>92</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1375,7 +1344,7 @@
         <v>93</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1383,7 +1352,7 @@
         <v>94</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1391,7 +1360,7 @@
         <v>95</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1399,7 +1368,7 @@
         <v>96</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1407,7 +1376,7 @@
         <v>97</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1415,7 +1384,7 @@
         <v>98</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1423,7 +1392,7 @@
         <v>99</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1431,7 +1400,7 @@
         <v>100</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1439,7 +1408,7 @@
         <v>101</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1447,7 +1416,7 @@
         <v>102</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1455,7 +1424,7 @@
         <v>103</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1463,7 +1432,7 @@
         <v>104</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1471,7 +1440,7 @@
         <v>105</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1479,7 +1448,7 @@
         <v>106</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1487,7 +1456,7 @@
         <v>107</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1495,7 +1464,7 @@
         <v>108</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1503,7 +1472,7 @@
         <v>109</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1511,7 +1480,7 @@
         <v>110</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1519,7 +1488,7 @@
         <v>111</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1527,7 +1496,7 @@
         <v>112</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1535,7 +1504,7 @@
         <v>113</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1543,7 +1512,7 @@
         <v>114</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1551,7 +1520,7 @@
         <v>115</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1559,7 +1528,7 @@
         <v>116</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1567,7 +1536,7 @@
         <v>117</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1575,7 +1544,7 @@
         <v>118</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1583,7 +1552,7 @@
         <v>119</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1591,7 +1560,7 @@
         <v>120</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1599,7 +1568,7 @@
         <v>121</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1607,7 +1576,7 @@
         <v>122</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1615,7 +1584,7 @@
         <v>123</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1623,7 +1592,7 @@
         <v>124</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1631,7 +1600,7 @@
         <v>125</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1639,321 +1608,231 @@
         <v>126</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="0" t="s">
+      <c r="A122" s="5" t="s">
         <v>127</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="0" t="s">
+      <c r="A123" s="5" t="s">
         <v>128</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="0" t="s">
+      <c r="A124" s="5" t="s">
         <v>129</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="0" t="s">
+      <c r="A125" s="5" t="s">
         <v>130</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B126" s="6"/>
       <c r="C126" s="4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B127" s="6"/>
       <c r="C127" s="4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B128" s="6"/>
       <c r="C128" s="4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B129" s="6"/>
       <c r="C129" s="4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="B130" s="6"/>
       <c r="C130" s="4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B131" s="6"/>
       <c r="C131" s="4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B132" s="6"/>
       <c r="C132" s="4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="B133" s="6"/>
       <c r="C133" s="4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B134" s="6"/>
       <c r="C134" s="4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="B135" s="6"/>
       <c r="C135" s="4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="B136" s="6"/>
       <c r="C136" s="4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="B137" s="6"/>
       <c r="C137" s="4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B138" s="6"/>
       <c r="C138" s="4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="B139" s="6"/>
       <c r="C139" s="4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="B140" s="6"/>
       <c r="C140" s="4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="B141" s="6"/>
       <c r="C141" s="4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="B142" s="6"/>
       <c r="C142" s="4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B143" s="6"/>
       <c r="C143" s="4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="5" t="s">
+      <c r="A144" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="B144" s="6"/>
+      <c r="B144" s="7"/>
       <c r="C144" s="4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="5" t="s">
+      <c r="A145" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="B145" s="6"/>
+      <c r="B145" s="7"/>
       <c r="C145" s="4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="B146" s="6"/>
-      <c r="C146" s="4" t="s">
-        <v>77</v>
-      </c>
+      <c r="C146" s="4"/>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="B147" s="6"/>
-      <c r="C147" s="4" t="s">
-        <v>77</v>
-      </c>
+      <c r="C147" s="4"/>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="B148" s="6"/>
-      <c r="C148" s="4" t="s">
-        <v>77</v>
-      </c>
+      <c r="C148" s="4"/>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="B149" s="6"/>
-      <c r="C149" s="4" t="s">
-        <v>77</v>
-      </c>
+      <c r="C149" s="4"/>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C150" s="4" t="s">
-        <v>77</v>
-      </c>
+      <c r="C150" s="4"/>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C151" s="4" t="s">
-        <v>77</v>
-      </c>
+      <c r="C151" s="4"/>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C152" s="4" t="s">
-        <v>77</v>
-      </c>
+      <c r="C152" s="4"/>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C153" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C154" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C155" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C156" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C157" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
+      <c r="C153" s="4"/>
+    </row>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
